--- a/総合演習資料/4.テスト仕様/結合テスト仕様書_ミッチェル.xlsx
+++ b/総合演習資料/4.テスト仕様/結合テスト仕様書_ミッチェル.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\javaWeb.git\総合演習資料\4.テスト仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\java.git\総合演習資料\4.テスト仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6705" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="select一覧" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="223">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -306,31 +306,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員情報管理画面の一覧表にある「名前」リンクをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -957,67 +932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員情報管理画面に遷移して、下記を表示されない：
-上右「ユーザー名」の色は青い
-メニューに「新規登録」リンク
-一覧表に「修正」・「削除」リンク</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報管理画面に遷移して、下記を表示される：
 上右「ユーザー名」
 一覧</t>
@@ -3163,6 +3077,97 @@
     <rPh sb="44" eb="46">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移して、下記を表示されない：
+上右「ユーザー名」の色は黒い
+メニューに「個人情報」リンクのみ
+一覧表に「氏名リンクのみ</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面の一覧表にある「氏名」リンクをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3403,7 +3408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3461,6 +3466,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3476,22 +3484,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3512,26 +3520,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3815,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3828,7 +3836,7 @@
     <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="43" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="14" width="2.875" style="1" customWidth="1"/>
@@ -3836,17 +3844,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -3855,18 +3863,18 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+      <c r="B3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="20">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -3874,14 +3882,14 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
@@ -3920,82 +3928,94 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="60" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>20</v>
@@ -4003,45 +4023,53 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="10" spans="2:10" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>22</v>
@@ -4049,22 +4077,26 @@
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="12" spans="2:10" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <v>7</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>25</v>
@@ -4072,55 +4104,67 @@
       <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
@@ -4129,78 +4173,92 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="48" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" s="12">
+        <v>43039</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
@@ -4209,7 +4267,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
@@ -4220,7 +4278,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
@@ -4243,7 +4301,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4263,17 +4321,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4282,18 +4340,18 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="20">
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -4301,14 +4359,14 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
@@ -4347,59 +4405,67 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>25</v>
@@ -4407,78 +4473,94 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="11" spans="2:10" s="14" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>6</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="17" t="s">
+        <v>219</v>
+      </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
@@ -4619,17 +4701,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4638,18 +4720,18 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+      <c r="B3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="20">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -4657,15 +4739,15 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="42">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19">
         <v>43034</v>
       </c>
     </row>
@@ -4703,16 +4785,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
@@ -4724,16 +4806,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
@@ -4745,16 +4827,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
@@ -4766,16 +4848,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
@@ -4787,16 +4869,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
@@ -4808,16 +4890,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
@@ -4829,16 +4911,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
@@ -4850,16 +4932,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
@@ -5310,7 +5392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5332,17 +5414,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
@@ -5351,18 +5433,18 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="19">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="20">
         <v>1</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -5370,15 +5452,15 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="42">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19">
         <v>43034</v>
       </c>
     </row>
@@ -5416,16 +5498,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -5439,16 +5521,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -5462,16 +5544,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -5485,16 +5567,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -5508,16 +5590,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -5531,16 +5613,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>14</v>
@@ -5554,16 +5636,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>14</v>
@@ -5577,16 +5659,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>14</v>
@@ -5600,16 +5682,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -5623,16 +5705,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>14</v>
@@ -5646,16 +5728,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -5669,16 +5751,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -5692,16 +5774,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -5715,16 +5797,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
@@ -5738,16 +5820,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>14</v>
@@ -5761,16 +5843,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>14</v>
@@ -5784,16 +5866,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
@@ -5807,16 +5889,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
@@ -5830,16 +5912,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>13</v>
@@ -5853,16 +5935,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>13</v>
@@ -5876,16 +5958,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
@@ -5899,16 +5981,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
@@ -5922,16 +6004,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
@@ -5945,16 +6027,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>13</v>
@@ -5968,16 +6050,16 @@
         <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
@@ -5991,16 +6073,16 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
@@ -6014,16 +6096,16 @@
         <v>27</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>14</v>
@@ -6037,16 +6119,16 @@
         <v>28</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>14</v>
@@ -6060,16 +6142,16 @@
         <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>14</v>
@@ -6083,16 +6165,16 @@
         <v>30</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>14</v>
@@ -6106,16 +6188,16 @@
         <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>13</v>
@@ -6129,16 +6211,16 @@
         <v>32</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>13</v>
@@ -6152,16 +6234,16 @@
         <v>33</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>14</v>
@@ -6175,16 +6257,16 @@
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="F39" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>13</v>
@@ -6198,16 +6280,16 @@
         <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>13</v>
@@ -6221,16 +6303,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>13</v>
@@ -6244,16 +6326,16 @@
         <v>37</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>14</v>
@@ -6267,16 +6349,16 @@
         <v>38</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>14</v>
